--- a/test/Feature_Data.xlsx
+++ b/test/Feature_Data.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\CNIC\Metabolomica\TurboPutative_GitHub_TFM\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\CNIC\Metabolomica\MemoriaTFM\analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F851C1-B59F-4742-8F56-2283257D40A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71FEB13-07F6-4301-8D4E-F6AE5C199AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -124,15 +124,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -140,12 +146,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,14 +470,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C011D9-ABC2-4EA1-8774-C2FFB5F64DE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -474,7 +489,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -485,7 +500,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -496,7 +511,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -507,7 +522,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -518,7 +533,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6">
@@ -529,7 +544,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
@@ -540,7 +555,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
@@ -551,7 +566,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
@@ -562,7 +577,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10">
@@ -573,7 +588,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B11">
@@ -584,7 +599,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12">
@@ -595,7 +610,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B13">
@@ -606,7 +621,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B14">
@@ -617,7 +632,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15">
@@ -628,7 +643,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -639,7 +654,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B17">
@@ -650,7 +665,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18">
@@ -661,7 +676,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B19">
@@ -672,7 +687,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20">
@@ -683,7 +698,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B21">
@@ -694,7 +709,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22">
@@ -705,7 +720,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B23">
@@ -716,7 +731,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B24">
@@ -727,7 +742,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B25">
@@ -738,7 +753,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26">
@@ -749,6 +764,15 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A26">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A26">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>